--- a/PflichtenheftOrg/Ext. files/risiko grafik.xlsx
+++ b/PflichtenheftOrg/Ext. files/risiko grafik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramiro18/Library/Group Containers/UBF8T346G9.ms/MerpTempItems/Schule/Studium/Pro1/Pflichtenheft/Ext. files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramiro18/Library/Group Containers/UBF8T346G9.ms/MerpTempItems/Schule/Studium/Pro1/PflichtenheftOrg/Ext. files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC7D458-E0EE-D445-927F-47300A9D9E72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01B230D-AE05-9442-AD59-2CB8FB1B1C81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22160" windowHeight="15940" xr2:uid="{61394468-9DFD-4F2A-BFA1-329580A626FA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{61394468-9DFD-4F2A-BFA1-329580A626FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Gross</t>
   </si>
@@ -43,13 +43,49 @@
   </si>
   <si>
     <t>Schaden</t>
+  </si>
+  <si>
+    <t>Projektziele</t>
+  </si>
+  <si>
+    <t>Kosten</t>
+  </si>
+  <si>
+    <t>Termin</t>
+  </si>
+  <si>
+    <t>Budget-überschreitung &lt;10%</t>
+  </si>
+  <si>
+    <t>Buget-überschreitung &gt;25%</t>
+  </si>
+  <si>
+    <t>Verzug &lt;10%</t>
+  </si>
+  <si>
+    <t>Verzug &gt;25%</t>
+  </si>
+  <si>
+    <t>Buget-überschreitung 10% - 25%</t>
+  </si>
+  <si>
+    <t>Gering           (1)</t>
+  </si>
+  <si>
+    <t>Mässig            (2)</t>
+  </si>
+  <si>
+    <t>Hoch             (3)</t>
+  </si>
+  <si>
+    <t>Verzug         10% - 25%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,8 +104,27 @@
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,8 +167,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF400"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -282,11 +343,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -295,9 +380,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -331,6 +413,37 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -338,6 +451,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFF400"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -646,39 +764,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDAB4DB-A61E-4AD2-A0F5-F92813AE6B2A}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="17.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.1640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>3</v>
       </c>
       <c r="E2" s="2">
@@ -687,89 +805,143 @@
       <c r="F2" s="3">
         <v>9</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="16">
         <v>4</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>6</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>1</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>2</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>3</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="7" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="15" t="s">
+      <c r="A6" s="13"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="17"/>
+      <c r="D14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PflichtenheftOrg/Ext. files/risiko grafik.xlsx
+++ b/PflichtenheftOrg/Ext. files/risiko grafik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramiro18/Library/Group Containers/UBF8T346G9.ms/MerpTempItems/Schule/Studium/Pro1/PflichtenheftOrg/Ext. files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01B230D-AE05-9442-AD59-2CB8FB1B1C81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B495E18-F7ED-174D-ACF1-291F8F004929}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{61394468-9DFD-4F2A-BFA1-329580A626FA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16180" xr2:uid="{61394468-9DFD-4F2A-BFA1-329580A626FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Gross</t>
   </si>
@@ -60,12 +60,6 @@
     <t>Buget-überschreitung &gt;25%</t>
   </si>
   <si>
-    <t>Verzug &lt;10%</t>
-  </si>
-  <si>
-    <t>Verzug &gt;25%</t>
-  </si>
-  <si>
     <t>Buget-überschreitung 10% - 25%</t>
   </si>
   <si>
@@ -79,6 +73,39 @@
   </si>
   <si>
     <t>Verzug         10% - 25%</t>
+  </si>
+  <si>
+    <t>Eintritt   des Risiko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Gering              1</t>
+  </si>
+  <si>
+    <t>Mässig               2</t>
+  </si>
+  <si>
+    <t>Hoch                3</t>
+  </si>
+  <si>
+    <t>Kaum         &lt;30%</t>
+  </si>
+  <si>
+    <t>Halb-halb          30-70%</t>
+  </si>
+  <si>
+    <t>(fast) sicher          &gt;70%</t>
+  </si>
+  <si>
+    <t>Auswirkung/Schaden</t>
+  </si>
+  <si>
+    <t>Verzug             &lt;10%</t>
+  </si>
+  <si>
+    <t>Verzug                &gt;25%</t>
   </si>
 </sst>
 </file>
@@ -371,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -408,16 +435,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -427,23 +468,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDAB4DB-A61E-4AD2-A0F5-F92813AE6B2A}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -790,8 +829,8 @@
     </row>
     <row r="2" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
-      <c r="B2" s="15" t="s">
-        <v>4</v>
+      <c r="B2" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>0</v>
@@ -809,14 +848,14 @@
     </row>
     <row r="3" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
-      <c r="B3" s="15"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="8">
         <v>2</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="14">
         <v>4</v>
       </c>
       <c r="F3" s="4">
@@ -826,7 +865,7 @@
     </row>
     <row r="4" spans="1:7" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="15"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
@@ -859,11 +898,11 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -887,61 +926,182 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F9" s="13"/>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="17"/>
-      <c r="D14" s="18" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="23" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" ht="32" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="56.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>11</v>
-      </c>
+      <c r="D23" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
